--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.151663855771372</v>
+        <v>0.2484426666666667</v>
       </c>
       <c r="H2">
-        <v>0.151663855771372</v>
+        <v>0.745328</v>
       </c>
       <c r="I2">
-        <v>0.09583613378977994</v>
+        <v>0.1396403772415532</v>
       </c>
       <c r="J2">
-        <v>0.09583613378977994</v>
+        <v>0.1396403772415532</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.48760295279544</v>
+        <v>4.171693666666666</v>
       </c>
       <c r="N2">
-        <v>3.48760295279544</v>
+        <v>12.515081</v>
       </c>
       <c r="O2">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="P2">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="Q2">
-        <v>0.5289433112205788</v>
+        <v>1.036426699063111</v>
       </c>
       <c r="R2">
-        <v>0.5289433112205788</v>
+        <v>9.327840291567998</v>
       </c>
       <c r="S2">
-        <v>0.009004303067558615</v>
+        <v>0.01505212997409832</v>
       </c>
       <c r="T2">
-        <v>0.009004303067558615</v>
+        <v>0.01505212997409833</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.151663855771372</v>
+        <v>0.2484426666666667</v>
       </c>
       <c r="H3">
-        <v>0.151663855771372</v>
+        <v>0.745328</v>
       </c>
       <c r="I3">
-        <v>0.09583613378977994</v>
+        <v>0.1396403772415532</v>
       </c>
       <c r="J3">
-        <v>0.09583613378977994</v>
+        <v>0.1396403772415532</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3881087873559</v>
+        <v>20.39394566666667</v>
       </c>
       <c r="N3">
-        <v>20.3881087873559</v>
+        <v>61.181837</v>
       </c>
       <c r="O3">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327285</v>
       </c>
       <c r="P3">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327286</v>
       </c>
       <c r="Q3">
-        <v>3.092139190576587</v>
+        <v>5.066726245281778</v>
       </c>
       <c r="R3">
-        <v>3.092139190576587</v>
+        <v>45.600536207536</v>
       </c>
       <c r="S3">
-        <v>0.05263807634655226</v>
+        <v>0.07358457868375745</v>
       </c>
       <c r="T3">
-        <v>0.05263807634655226</v>
+        <v>0.07358457868375747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.151663855771372</v>
+        <v>0.2484426666666667</v>
       </c>
       <c r="H4">
-        <v>0.151663855771372</v>
+        <v>0.745328</v>
       </c>
       <c r="I4">
-        <v>0.09583613378977994</v>
+        <v>0.1396403772415532</v>
       </c>
       <c r="J4">
-        <v>0.09583613378977994</v>
+        <v>0.1396403772415532</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.2441387004624</v>
+        <v>14.13565266666667</v>
       </c>
       <c r="N4">
-        <v>13.2441387004624</v>
+        <v>42.406958</v>
       </c>
       <c r="O4">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="P4">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="Q4">
-        <v>2.008657141682976</v>
+        <v>3.511899243580445</v>
       </c>
       <c r="R4">
-        <v>2.008657141682976</v>
+        <v>31.607093192224</v>
       </c>
       <c r="S4">
-        <v>0.03419375437566904</v>
+        <v>0.05100366858369744</v>
       </c>
       <c r="T4">
-        <v>0.03419375437566904</v>
+        <v>0.05100366858369745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.02664302569929</v>
+        <v>1.055305333333333</v>
       </c>
       <c r="H5">
-        <v>1.02664302569929</v>
+        <v>3.165916</v>
       </c>
       <c r="I5">
-        <v>0.6487339904741733</v>
+        <v>0.5931478551122046</v>
       </c>
       <c r="J5">
-        <v>0.6487339904741733</v>
+        <v>0.5931478551122047</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.48760295279544</v>
+        <v>4.171693666666666</v>
       </c>
       <c r="N5">
-        <v>3.48760295279544</v>
+        <v>12.515081</v>
       </c>
       <c r="O5">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="P5">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="Q5">
-        <v>3.580523247895689</v>
+        <v>4.402410575466222</v>
       </c>
       <c r="R5">
-        <v>3.580523247895689</v>
+        <v>39.621695179196</v>
       </c>
       <c r="S5">
-        <v>0.06095193148410451</v>
+        <v>0.063936654894325</v>
       </c>
       <c r="T5">
-        <v>0.06095193148410451</v>
+        <v>0.06393665489432503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.02664302569929</v>
+        <v>1.055305333333333</v>
       </c>
       <c r="H6">
-        <v>1.02664302569929</v>
+        <v>3.165916</v>
       </c>
       <c r="I6">
-        <v>0.6487339904741733</v>
+        <v>0.5931478551122046</v>
       </c>
       <c r="J6">
-        <v>0.6487339904741733</v>
+        <v>0.5931478551122047</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.3881087873559</v>
+        <v>20.39394566666667</v>
       </c>
       <c r="N6">
-        <v>20.3881087873559</v>
+        <v>61.181837</v>
       </c>
       <c r="O6">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327285</v>
       </c>
       <c r="P6">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327286</v>
       </c>
       <c r="Q6">
-        <v>20.93130969373734</v>
+        <v>21.52183962974356</v>
       </c>
       <c r="R6">
-        <v>20.93130969373734</v>
+        <v>193.696556667692</v>
       </c>
       <c r="S6">
-        <v>0.3563176848733085</v>
+        <v>0.3125638578024261</v>
       </c>
       <c r="T6">
-        <v>0.3563176848733085</v>
+        <v>0.3125638578024262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.02664302569929</v>
+        <v>1.055305333333333</v>
       </c>
       <c r="H7">
-        <v>1.02664302569929</v>
+        <v>3.165916</v>
       </c>
       <c r="I7">
-        <v>0.6487339904741733</v>
+        <v>0.5931478551122046</v>
       </c>
       <c r="J7">
-        <v>0.6487339904741733</v>
+        <v>0.5931478551122047</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.2441387004624</v>
+        <v>14.13565266666667</v>
       </c>
       <c r="N7">
-        <v>13.2441387004624</v>
+        <v>42.406958</v>
       </c>
       <c r="O7">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="P7">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="Q7">
-        <v>13.59700262822378</v>
+        <v>14.91742964928089</v>
       </c>
       <c r="R7">
-        <v>13.59700262822378</v>
+        <v>134.256866843528</v>
       </c>
       <c r="S7">
-        <v>0.2314643741167602</v>
+        <v>0.2166473424154534</v>
       </c>
       <c r="T7">
-        <v>0.2314643741167602</v>
+        <v>0.2166473424154535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.40422623807329</v>
+        <v>0.4754126666666667</v>
       </c>
       <c r="H8">
-        <v>0.40422623807329</v>
+        <v>1.426238</v>
       </c>
       <c r="I8">
-        <v>0.2554298757360467</v>
+        <v>0.2672117676462422</v>
       </c>
       <c r="J8">
-        <v>0.2554298757360467</v>
+        <v>0.2672117676462422</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.48760295279544</v>
+        <v>4.171693666666666</v>
       </c>
       <c r="N8">
-        <v>3.48760295279544</v>
+        <v>12.515081</v>
       </c>
       <c r="O8">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="P8">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="Q8">
-        <v>1.409780621501799</v>
+        <v>1.983276010586444</v>
       </c>
       <c r="R8">
-        <v>1.409780621501799</v>
+        <v>17.849484095278</v>
       </c>
       <c r="S8">
-        <v>0.02399896492779294</v>
+        <v>0.0288033184718648</v>
       </c>
       <c r="T8">
-        <v>0.02399896492779294</v>
+        <v>0.0288033184718648</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.40422623807329</v>
+        <v>0.4754126666666667</v>
       </c>
       <c r="H9">
-        <v>0.40422623807329</v>
+        <v>1.426238</v>
       </c>
       <c r="I9">
-        <v>0.2554298757360467</v>
+        <v>0.2672117676462422</v>
       </c>
       <c r="J9">
-        <v>0.2554298757360467</v>
+        <v>0.2672117676462422</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3881087873559</v>
+        <v>20.39394566666667</v>
       </c>
       <c r="N9">
-        <v>20.3881087873559</v>
+        <v>61.181837</v>
       </c>
       <c r="O9">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327285</v>
       </c>
       <c r="P9">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327286</v>
       </c>
       <c r="Q9">
-        <v>8.241408516541862</v>
+        <v>9.695540093245112</v>
       </c>
       <c r="R9">
-        <v>8.241408516541862</v>
+        <v>87.25986083920601</v>
       </c>
       <c r="S9">
-        <v>0.1402950721037769</v>
+        <v>0.140809311246545</v>
       </c>
       <c r="T9">
-        <v>0.1402950721037769</v>
+        <v>0.140809311246545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.40422623807329</v>
+        <v>0.4754126666666667</v>
       </c>
       <c r="H10">
-        <v>0.40422623807329</v>
+        <v>1.426238</v>
       </c>
       <c r="I10">
-        <v>0.2554298757360467</v>
+        <v>0.2672117676462422</v>
       </c>
       <c r="J10">
-        <v>0.2554298757360467</v>
+        <v>0.2672117676462422</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.2441387004624</v>
+        <v>14.13565266666667</v>
       </c>
       <c r="N10">
-        <v>13.2441387004624</v>
+        <v>42.406958</v>
       </c>
       <c r="O10">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="P10">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="Q10">
-        <v>5.353628363408788</v>
+        <v>6.720268329333779</v>
       </c>
       <c r="R10">
-        <v>5.353628363408788</v>
+        <v>60.48241496400401</v>
       </c>
       <c r="S10">
-        <v>0.09113583870447685</v>
+        <v>0.09759913792783241</v>
       </c>
       <c r="T10">
-        <v>0.09113583870447685</v>
+        <v>0.09759913792783244</v>
       </c>
     </row>
   </sheetData>
